--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -1,150 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Programming Language\Html\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF61557-D96F-4467-9745-8F16EACD79DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>One</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>HTML Acronym (4 words)</t>
-  </si>
-  <si>
-    <t>Hyper Text Markup Language</t>
-  </si>
-  <si>
-    <t>Hyper Text = Text with ***** to another text</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Markup</t>
-  </si>
-  <si>
-    <t>Markup Language = ***** that characterize the text</t>
-  </si>
-  <si>
-    <t>Tags</t>
-  </si>
-  <si>
-    <t>Links</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>HTML is Case-Sensitive</t>
-  </si>
-  <si>
-    <t>No, Except some attribute values</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>YesNo</t>
-  </si>
-  <si>
-    <t>Some HTML Tag Attributes are Case Sensitive</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Recommended HTML Style</t>
-  </si>
-  <si>
-    <t>LowerCase</t>
-  </si>
-  <si>
-    <t>UpperCase</t>
-  </si>
-  <si>
-    <t>You can write and read HTML code in any text editor</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>24/12/20</t>
-  </si>
-  <si>
-    <t>Multi</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -258,60 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -577,234 +529,325 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="E3" pane="bottomLeft" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="2.19921875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.19921875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="37.796875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="25.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.69921875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" style="11" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="2.19921875"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="8" width="6.296875"/>
+    <col customWidth="1" max="4" min="4" style="8" width="2.19921875"/>
+    <col customWidth="1" max="5" min="5" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="6" style="5" width="25.69921875"/>
+    <col customWidth="1" max="7" min="7" style="5" width="17.69921875"/>
+    <col customWidth="1" max="8" min="8" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="12" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="H1" s="10" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="B2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>One</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>HTML Acronym (4 words)</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>Hyper Text Markup Language</t>
+        </is>
+      </c>
+      <c r="G2" s="6" t="n"/>
+      <c r="H2" s="11" t="n">
+        <v>43932</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="3">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="B3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>Multi</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>Hyper Text = Text with ***** to another text</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>Markup</t>
+        </is>
+      </c>
+      <c r="H3" s="11" t="n">
+        <v>43932</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="4">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>Multi</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>Markup Language = ***** that characterize the text</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>Tags</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>Links</t>
+        </is>
+      </c>
+      <c r="H4" s="11" t="n">
+        <v>43932</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="5">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>Multi</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>HTML is Case-Sensitive</t>
+        </is>
+      </c>
+      <c r="F5" s="9" t="inlineStr">
+        <is>
+          <t>No, Except some attribute values</t>
+        </is>
+      </c>
+      <c r="G5" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H5" s="11" t="n">
+        <v>43932</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="6">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="B6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>YesNo</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>Some HTML Tag Attributes are Case Sensitive</t>
+        </is>
+      </c>
+      <c r="F6" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" s="9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H6" s="11" t="inlineStr">
+        <is>
+          <t>24/12/20</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="7">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
+      <c r="B7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>Multi</t>
+        </is>
+      </c>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>Recommended HTML Style</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>LowerCase</t>
+        </is>
+      </c>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>UpperCase</t>
+        </is>
+      </c>
+      <c r="H7" s="11" t="n">
+        <v>43932</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row customHeight="1" ht="27.6" r="8">
+      <c r="A8" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="11">
-        <v>43932</v>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>YesNo</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>You can write and read HTML code in any text editor</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" s="11" t="n">
+        <v>44054</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="11">
-        <v>43932</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="11">
-        <v>43932</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="11">
-        <v>43932</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="11">
-        <v>43932</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="11">
-        <v>44054</v>
-      </c>
-    </row>
+    <row r="9"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,119 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,26 +466,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="E3" pane="bottomLeft" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="2.19921875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="8" width="6.296875"/>
-    <col customWidth="1" max="4" min="4" style="8" width="2.19921875"/>
-    <col customWidth="1" max="5" min="5" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="6" style="5" width="25.69921875"/>
-    <col customWidth="1" max="7" min="7" style="5" width="17.69921875"/>
-    <col customWidth="1" max="8" min="8" style="11" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="2.19921875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -566,30 +497,25 @@
       </c>
       <c r="C1" s="7" t="inlineStr">
         <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="D1" s="7" t="inlineStr">
-        <is>
           <t>P</t>
         </is>
       </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
       <c r="E1" s="4" t="inlineStr">
         <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="F1" s="4" t="inlineStr">
-        <is>
           <t>Right Answer</t>
         </is>
       </c>
-      <c r="G1" s="12" t="inlineStr">
+      <c r="F1" s="12" t="inlineStr">
         <is>
           <t>Wrong Answer</t>
         </is>
       </c>
-      <c r="H1" s="10" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>Date Created</t>
         </is>
@@ -604,30 +530,25 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>One</t>
-        </is>
-      </c>
-      <c r="D2" s="8" t="inlineStr">
-        <is>
           <t>C</t>
         </is>
       </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>HTML Acronym (4 words)</t>
+        </is>
+      </c>
       <c r="E2" s="6" t="inlineStr">
         <is>
-          <t>HTML Acronym (4 words)</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="inlineStr">
-        <is>
           <t>Hyper Text Markup Language</t>
         </is>
       </c>
-      <c r="G2" s="6" t="n"/>
-      <c r="H2" s="11" t="n">
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
@@ -636,34 +557,29 @@
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Multi</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="inlineStr">
-        <is>
           <t>C</t>
         </is>
       </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Hyper Text = Text with ***** to another text</t>
+        </is>
+      </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
-          <t>Hyper Text = Text with ***** to another text</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="F3" s="6" t="inlineStr">
         <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="G3" s="6" t="inlineStr">
-        <is>
           <t>Markup</t>
         </is>
       </c>
-      <c r="H3" s="11" t="n">
+      <c r="G3" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
@@ -672,34 +588,29 @@
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>Multi</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="inlineStr">
-        <is>
           <t>C</t>
         </is>
       </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Markup Language = ***** that characterize the text</t>
+        </is>
+      </c>
       <c r="E4" s="6" t="inlineStr">
         <is>
-          <t>Markup Language = ***** that characterize the text</t>
+          <t>Tags</t>
         </is>
       </c>
       <c r="F4" s="6" t="inlineStr">
         <is>
-          <t>Tags</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
           <t>Links</t>
         </is>
       </c>
-      <c r="H4" s="11" t="n">
+      <c r="G4" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
@@ -708,34 +619,29 @@
       </c>
       <c r="C5" s="8" t="inlineStr">
         <is>
-          <t>Multi</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="inlineStr">
-        <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E5" s="6" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>HTML is Case-Sensitive</t>
         </is>
       </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>No, Except some attribute values</t>
+        </is>
+      </c>
       <c r="F5" s="9" t="inlineStr">
         <is>
-          <t>No, Except some attribute values</t>
-        </is>
-      </c>
-      <c r="G5" s="9" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H5" s="11" t="n">
+      <c r="G5" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
@@ -744,36 +650,31 @@
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>YesNo</t>
-        </is>
-      </c>
-      <c r="D6" s="8" t="inlineStr">
-        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E6" s="6" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>Some HTML Tag Attributes are Case Sensitive</t>
         </is>
       </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F6" s="9" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G6" s="9" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="H6" s="11" t="inlineStr">
+      <c r="G6" s="11" t="inlineStr">
         <is>
           <t>24/12/20</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
@@ -782,34 +683,29 @@
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>Multi</t>
-        </is>
-      </c>
-      <c r="D7" s="8" t="inlineStr">
-        <is>
           <t>B</t>
         </is>
       </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Recommended HTML Style</t>
+        </is>
+      </c>
       <c r="E7" s="6" t="inlineStr">
         <is>
-          <t>Recommended HTML Style</t>
+          <t>LowerCase</t>
         </is>
       </c>
       <c r="F7" s="6" t="inlineStr">
         <is>
-          <t>LowerCase</t>
-        </is>
-      </c>
-      <c r="G7" s="6" t="inlineStr">
-        <is>
           <t>UpperCase</t>
         </is>
       </c>
-      <c r="H7" s="11" t="n">
+      <c r="G7" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
@@ -818,36 +714,31 @@
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>YesNo</t>
-        </is>
-      </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
           <t>C</t>
         </is>
       </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>You can write and read HTML code in any text editor</t>
+        </is>
+      </c>
       <c r="E8" s="6" t="inlineStr">
         <is>
-          <t>You can write and read HTML code in any text editor</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F8" s="6" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G8" s="6" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="H8" s="11" t="n">
+      <c r="G8" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
     <row r="9"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -196,6 +196,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,21 +13,110 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>HTML Acronym (4 words)</t>
+  </si>
+  <si>
+    <t>Hyper Text Markup Language</t>
+  </si>
+  <si>
+    <t>Hyper Text = Text with l***** to another text</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>Markup Language = t***** that characterize the text</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>Markup Language = tags that ch***** the text</t>
+  </si>
+  <si>
+    <t>characterize</t>
+  </si>
+  <si>
+    <t>16/01/21</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>HTML is Case-Sensitive</t>
+  </si>
+  <si>
+    <t>No, Except some attribute values</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Some HTML Tag Attributes are Case Sensitive</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>24/12/20</t>
+  </si>
+  <si>
+    <t>Recommended HTML Style is *****case</t>
+  </si>
+  <si>
+    <t>lowercase</t>
+  </si>
+  <si>
+    <t>You can write and read HTML code in any text editor</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <b val="1"/>
       <color theme="0"/>
@@ -151,119 +240,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -534,279 +555,224 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="1"/>
+      <selection activeCell="G11" pane="bottomLeft" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="2.19921875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.36328125"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.1796875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.81640625"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.7265625"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.7265625"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.6328125"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="12" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="10" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>HTML Acronym (4 words)</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>Hyper Text Markup Language</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.65" r="3" spans="1:7">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>Hyper Text = Text with ***** to another text</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="inlineStr">
-        <is>
-          <t>Markup</t>
-        </is>
-      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6" t="n"/>
       <c r="G3" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.65" r="4" spans="1:7">
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>Markup Language = ***** that characterize the text</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>Tags</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr">
-        <is>
-          <t>Links</t>
-        </is>
-      </c>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6" t="n"/>
       <c r="G4" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.65" r="5" spans="1:7">
       <c r="A5" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6" t="n"/>
+      <c r="G5" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.65" r="6" spans="1:7">
+      <c r="A6" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>HTML is Case-Sensitive</t>
-        </is>
-      </c>
-      <c r="E5" s="9" t="inlineStr">
-        <is>
-          <t>No, Except some attribute values</t>
-        </is>
-      </c>
-      <c r="F5" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G5" s="11" t="n">
+      <c r="B6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
-      <c r="A6" s="3" t="n">
+    <row customHeight="1" ht="27.65" r="7" spans="1:7">
+      <c r="A7" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>Some HTML Tag Attributes are Case Sensitive</t>
-        </is>
-      </c>
-      <c r="E6" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F6" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G6" s="11" t="inlineStr">
-        <is>
-          <t>24/12/20</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="27.6" customHeight="1">
-      <c r="A7" s="3" t="n">
+      <c r="B7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.65" r="8" spans="1:7">
+      <c r="A8" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>Recommended HTML Style</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>LowerCase</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>UpperCase</t>
-        </is>
-      </c>
-      <c r="G7" s="11" t="n">
+      <c r="B8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="6" t="n"/>
+      <c r="G8" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
-      <c r="A8" s="3" t="n">
+    <row customHeight="1" ht="27.65" r="9" spans="1:7">
+      <c r="A9" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>You can write and read HTML code in any text editor</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G8" s="11" t="n">
+      <c r="B9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
-    <row r="9"/>
+    <row r="10" spans="1:7"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,99 +13,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>HTML Acronym (4 words)</t>
-  </si>
-  <si>
-    <t>Hyper Text Markup Language</t>
-  </si>
-  <si>
-    <t>Hyper Text = Text with l***** to another text</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>Markup Language = t***** that characterize the text</t>
-  </si>
-  <si>
-    <t>tags</t>
-  </si>
-  <si>
-    <t>Markup Language = tags that ch***** the text</t>
-  </si>
-  <si>
-    <t>characterize</t>
-  </si>
-  <si>
-    <t>16/01/21</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>HTML is Case-Sensitive</t>
-  </si>
-  <si>
-    <t>No, Except some attribute values</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Some HTML Tag Attributes are Case Sensitive</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>24/12/20</t>
-  </si>
-  <si>
-    <t>Recommended HTML Style is *****case</t>
-  </si>
-  <si>
-    <t>lowercase</t>
-  </si>
-  <si>
-    <t>You can write and read HTML code in any text editor</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -240,51 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -557,222 +468,294 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="1"/>
-      <selection activeCell="G11" pane="bottomLeft" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.36328125"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.1796875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.81640625"/>
-    <col customWidth="1" max="5" min="5" style="5" width="25.7265625"/>
-    <col customWidth="1" max="6" min="6" style="5" width="17.7265625"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.6328125"/>
+    <col width="3.36328125" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
+    <col width="25.7265625" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.7265625" customWidth="1" style="5" min="6" max="6"/>
+    <col width="12.6328125" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="12" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>HTML Acronym (4 words)</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>Hyper Text Markup Language</t>
+        </is>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="3" spans="1:7">
+    <row r="3" ht="27.65" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Hyper Text = Text with l***** to another text</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="4" spans="1:7">
+    <row r="4" ht="27.65" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Markup Language = t***** that characterize the text</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
       </c>
       <c r="F4" s="6" t="n"/>
       <c r="G4" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="5" spans="1:7">
+    <row r="5" ht="27.65" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>8</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>15</v>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Markup Language = tags that ch***** the text</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>characterize</t>
+        </is>
       </c>
       <c r="F5" s="6" t="n"/>
-      <c r="G5" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.65" r="6" spans="1:7">
+      <c r="G5" s="11" t="inlineStr">
+        <is>
+          <t>16/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="27.65" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>20</v>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>HTML is Case-Sensitive</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>No, Except some attribute values</t>
+        </is>
+      </c>
+      <c r="F6" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="G6" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="7" spans="1:7">
+    <row r="7" ht="27.65" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.65" r="8" spans="1:7">
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Some HTML Tag Attributes are Case Sensitive</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F7" s="9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G7" s="11" t="inlineStr">
+        <is>
+          <t>24/12/20</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="27.65" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>26</v>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>Recommended HTML Style is *****case</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>lowercase</t>
+        </is>
       </c>
       <c r="F8" s="6" t="n"/>
       <c r="G8" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="9" spans="1:7">
+    <row r="9" ht="27.65" customHeight="1">
       <c r="A9" s="3" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>23</v>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>You can write and read HTML code in any text editor</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="G9" s="11" t="n">
         <v>44054</v>
       </c>
     </row>
-    <row r="10" spans="1:7"/>
+    <row r="10"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,18 +16,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <b val="1"/>
       <color theme="0"/>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -468,23 +536,23 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="1"/>
+      <selection activeCell="A6" pane="bottomLeft" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.36328125" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.7265625" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.7265625" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.6328125" customWidth="1" style="11" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -523,7 +591,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>1</v>
+        <v>287</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
@@ -548,9 +616,9 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="3" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
-        <v>2</v>
+        <v>288</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
@@ -575,9 +643,9 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="4" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
@@ -602,9 +670,9 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="5" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
-        <v>8</v>
+        <v>290</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
@@ -631,9 +699,9 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
-        <v>4</v>
+        <v>291</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
@@ -662,9 +730,9 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="7" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" s="3" t="n">
-        <v>5</v>
+        <v>292</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
@@ -695,9 +763,9 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" s="3" t="n">
-        <v>6</v>
+        <v>293</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
@@ -722,9 +790,9 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="9" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" s="3" t="n">
-        <v>7</v>
+        <v>294</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>1</v>
@@ -755,7 +823,7 @@
     </row>
     <row r="10"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,119 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -536,23 +468,23 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="1"/>
-      <selection activeCell="A6" pane="bottomLeft" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
-    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -616,7 +548,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>288</v>
       </c>
@@ -643,7 +575,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>289</v>
       </c>
@@ -670,7 +602,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>290</v>
       </c>
@@ -699,7 +631,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>291</v>
       </c>
@@ -730,7 +662,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>292</v>
       </c>
@@ -763,7 +695,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>293</v>
       </c>
@@ -790,7 +722,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" s="3" t="n">
         <v>294</v>
       </c>
@@ -823,7 +755,7 @@
     </row>
     <row r="10"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,25 +534,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="1"/>
+      <selection activeCell="A6" pane="bottomLeft" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -548,7 +616,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>288</v>
       </c>
@@ -575,7 +643,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>289</v>
       </c>
@@ -602,7 +670,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>290</v>
       </c>
@@ -631,7 +699,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>291</v>
       </c>
@@ -662,7 +730,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" s="3" t="n">
         <v>292</v>
       </c>
@@ -695,7 +763,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" s="3" t="n">
         <v>293</v>
       </c>
@@ -722,7 +790,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" s="3" t="n">
         <v>294</v>
       </c>
@@ -753,9 +821,8 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="10"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -534,7 +534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="1"/>
@@ -821,6 +821,7 @@
         <v>44054</v>
       </c>
     </row>
+    <row r="10"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -468,23 +536,23 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="1"/>
+      <selection activeCell="A6" pane="bottomLeft" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -548,7 +616,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>288</v>
       </c>
@@ -575,7 +643,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>289</v>
       </c>
@@ -602,7 +670,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>290</v>
       </c>
@@ -631,7 +699,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>291</v>
       </c>
@@ -662,7 +730,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" s="3" t="n">
         <v>292</v>
       </c>
@@ -695,7 +763,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" s="3" t="n">
         <v>293</v>
       </c>
@@ -722,7 +790,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" s="3" t="n">
         <v>294</v>
       </c>
@@ -755,7 +823,7 @@
     </row>
     <row r="10"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -1,43 +1,129 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Programming Language\Html\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F31BC9-F54F-4706-B026-A33DB4333998}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>HTML Acronym (4 words)</t>
+  </si>
+  <si>
+    <t>Hyper Text Markup Language</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>Markup Language = t***** that characterize the text</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>Markup Language = tags that ch***** the text</t>
+  </si>
+  <si>
+    <t>characterize</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>HTML is Case-Sensitive</t>
+  </si>
+  <si>
+    <t>No, Except some attribute values</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Some HTML Tag Attributes are Case Sensitive</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Recommended HTML Style is *****case</t>
+  </si>
+  <si>
+    <t>lowercase</t>
+  </si>
+  <si>
+    <t>You can write and read HTML code in any text editor</t>
+  </si>
+  <si>
+    <t>Hyper Text = Text with l*** to another text</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -151,119 +237,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -529,301 +556,260 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="1"/>
-      <selection activeCell="A6" pane="bottomLeft" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
-    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col min="1" max="1" width="3.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.69921875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.69921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="12" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="10" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>287</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>HTML Acronym (4 words)</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>Hyper Text Markup Language</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="11" t="n">
-        <v>43932</v>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="12">
+        <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>288</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>Hyper Text = Text with l***** to another text</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="n"/>
-      <c r="G3" s="11" t="n">
-        <v>43932</v>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="12">
+        <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>289</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>Markup Language = t***** that characterize the text</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>tags</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="n"/>
-      <c r="G4" s="11" t="n">
-        <v>43932</v>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="12">
+        <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>290</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Markup Language = tags that ch***** the text</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>characterize</t>
-        </is>
-      </c>
-      <c r="F5" s="6" t="n"/>
-      <c r="G5" s="11" t="inlineStr">
-        <is>
-          <t>16/01/21</t>
-        </is>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="12">
+        <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>291</v>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>HTML is Case-Sensitive</t>
-        </is>
-      </c>
-      <c r="E6" s="9" t="inlineStr">
-        <is>
-          <t>No, Except some attribute values</t>
-        </is>
-      </c>
-      <c r="F6" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G6" s="11" t="n">
-        <v>43932</v>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="12">
+        <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>292</v>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>Some HTML Tag Attributes are Case Sensitive</t>
-        </is>
-      </c>
-      <c r="E7" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F7" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G7" s="11" t="inlineStr">
-        <is>
-          <t>24/12/20</t>
-        </is>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="12">
+        <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>293</v>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="8">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>Recommended HTML Style is *****case</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>lowercase</t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="n"/>
-      <c r="G8" s="11" t="n">
-        <v>43932</v>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="12">
+        <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
-      <c r="A9" s="3" t="n">
+    <row r="9" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>294</v>
       </c>
-      <c r="B9" s="8" t="n">
+      <c r="B9" s="8">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>You can write and read HTML code in any text editor</t>
-        </is>
-      </c>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F9" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G9" s="11" t="n">
-        <v>44054</v>
+      <c r="C9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="12">
+        <v>210413</v>
       </c>
     </row>
-    <row r="10"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <conditionalFormatting sqref="G2:G9">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -1,129 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Programming Language\Html\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F31BC9-F54F-4706-B026-A33DB4333998}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>HTML Acronym (4 words)</t>
-  </si>
-  <si>
-    <t>Hyper Text Markup Language</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>Markup Language = t***** that characterize the text</t>
-  </si>
-  <si>
-    <t>tags</t>
-  </si>
-  <si>
-    <t>Markup Language = tags that ch***** the text</t>
-  </si>
-  <si>
-    <t>characterize</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>HTML is Case-Sensitive</t>
-  </si>
-  <si>
-    <t>No, Except some attribute values</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Some HTML Tag Attributes are Case Sensitive</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Recommended HTML Style is *****case</t>
-  </si>
-  <si>
-    <t>lowercase</t>
-  </si>
-  <si>
-    <t>You can write and read HTML code in any text editor</t>
-  </si>
-  <si>
-    <t>Hyper Text = Text with l*** to another text</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -237,60 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -556,225 +527,297 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="F4" pane="bottomLeft" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.69921875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>287</v>
+      </c>
+      <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>HTML Acronym (4 words)</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>Hyper Text Markup Language</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="12" t="n">
+        <v>210413</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>287</v>
-      </c>
-      <c r="B2" s="8">
+    <row customHeight="1" ht="27.6" r="3">
+      <c r="A3" s="3" t="n">
+        <v>288</v>
+      </c>
+      <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="12">
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Hyper Text = Text with l*** to another text</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>288</v>
-      </c>
-      <c r="B3" s="8">
+    <row customHeight="1" ht="27.6" r="4">
+      <c r="A4" s="3" t="n">
+        <v>289</v>
+      </c>
+      <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="12">
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Markup Language = t***** that characterize the text</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="n"/>
+      <c r="G4" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>289</v>
-      </c>
-      <c r="B4" s="8">
+    <row customHeight="1" ht="27.6" r="5">
+      <c r="A5" s="3" t="n">
+        <v>290</v>
+      </c>
+      <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="12">
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Markup Language = tags that ch***** the text</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>characterize</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="n"/>
+      <c r="G5" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>290</v>
-      </c>
-      <c r="B5" s="8">
+    <row customHeight="1" ht="27.6" r="6">
+      <c r="A6" s="3" t="n">
+        <v>291</v>
+      </c>
+      <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="12">
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>HTML is Case-Sensitive</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>No, Except some attribute values</t>
+        </is>
+      </c>
+      <c r="F6" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>291</v>
-      </c>
-      <c r="B6" s="8">
+    <row customHeight="1" ht="27.6" r="7">
+      <c r="A7" s="3" t="n">
+        <v>292</v>
+      </c>
+      <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="12">
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Some HTML Tag Attributes are Case Sensitive</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F7" s="9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G7" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>292</v>
-      </c>
-      <c r="B7" s="8">
+    <row customHeight="1" ht="27.6" r="8">
+      <c r="A8" s="3" t="n">
+        <v>293</v>
+      </c>
+      <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="12">
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>Recommended HTML Style is *****case</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>lowercase</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="n"/>
+      <c r="G8" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>293</v>
-      </c>
-      <c r="B8" s="8">
+    <row customHeight="1" ht="27.6" r="9">
+      <c r="A9" s="3" t="n">
+        <v>294</v>
+      </c>
+      <c r="B9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="12">
-        <v>210413</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>294</v>
-      </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="12">
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>You can write and read HTML code in any text editor</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G9" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G9">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -786,7 +829,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -798,7 +841,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -809,7 +852,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -532,25 +464,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="F4" pane="bottomLeft" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
-    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -614,7 +546,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>288</v>
       </c>
@@ -641,7 +573,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>289</v>
       </c>
@@ -668,7 +600,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>290</v>
       </c>
@@ -682,7 +614,7 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>Markup Language = tags that ch***** the text</t>
+          <t>Markup Language = tags that c***** the text</t>
         </is>
       </c>
       <c r="E5" s="6" t="inlineStr">
@@ -695,7 +627,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>291</v>
       </c>
@@ -726,7 +658,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>292</v>
       </c>
@@ -757,12 +689,12 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>293</v>
       </c>
       <c r="B8" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
@@ -771,7 +703,7 @@
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>Recommended HTML Style is *****case</t>
+          <t>Recommended HTML Style is l*****</t>
         </is>
       </c>
       <c r="E8" s="6" t="inlineStr">
@@ -784,40 +716,107 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
-      <c r="A9" s="3" t="n">
+    <row r="9" ht="27.6" customHeight="1">
+      <c r="A9" t="n">
+        <v>360</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Recommended HTML Style is lowercase</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200427</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="27.6" customHeight="1">
+      <c r="A10" t="n">
+        <v>361</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>Recommended HTML Style is uppercase</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200427</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="27.6" customHeight="1">
+      <c r="A11" s="3" t="n">
         <v>294</v>
       </c>
-      <c r="B9" s="8" t="n">
+      <c r="B11" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="inlineStr">
+      <c r="C11" s="8" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D9" s="6" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
         <is>
           <t>You can write and read HTML code in any text editor</t>
         </is>
       </c>
-      <c r="E9" s="6" t="inlineStr">
+      <c r="E11" s="6" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="F9" s="6" t="inlineStr">
+      <c r="F11" s="6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="G9" s="12" t="n">
+      <c r="G11" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
+    <row r="12"/>
   </sheetData>
-  <conditionalFormatting sqref="G2:G9">
-    <cfRule priority="3" type="colorScale">
+  <conditionalFormatting sqref="G2:G11">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -829,7 +828,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -841,7 +840,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -852,7 +851,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,25 +532,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -546,7 +614,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>288</v>
       </c>
@@ -560,7 +628,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>Hyper Text = Text with l*** to another text</t>
+          <t>Hyper Text = Text with *****k to another text</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
@@ -573,7 +641,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>289</v>
       </c>
@@ -600,7 +668,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>290</v>
       </c>
@@ -627,7 +695,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>291</v>
       </c>
@@ -658,7 +726,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" s="3" t="n">
         <v>292</v>
       </c>
@@ -689,7 +757,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" s="3" t="n">
         <v>293</v>
       </c>
@@ -716,7 +784,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" t="n">
         <v>360</v>
       </c>
@@ -749,7 +817,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" t="n">
         <v>361</v>
       </c>
@@ -782,7 +850,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11">
       <c r="A11" s="3" t="n">
         <v>294</v>
       </c>
@@ -813,10 +881,9 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="12"/>
   </sheetData>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -828,7 +895,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -840,7 +907,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -851,7 +918,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -532,25 +464,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
-    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -614,7 +546,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>288</v>
       </c>
@@ -641,7 +573,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>289</v>
       </c>
@@ -668,7 +600,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>290</v>
       </c>
@@ -695,7 +627,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>291</v>
       </c>
@@ -726,7 +658,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>292</v>
       </c>
@@ -757,7 +689,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>293</v>
       </c>
@@ -784,7 +716,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" t="n">
         <v>360</v>
       </c>
@@ -817,7 +749,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>361</v>
       </c>
@@ -850,7 +782,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="11">
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" s="3" t="n">
         <v>294</v>
       </c>
@@ -881,9 +813,10 @@
         <v>210413</v>
       </c>
     </row>
+    <row r="12"/>
   </sheetData>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -895,7 +828,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -907,7 +840,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -918,7 +851,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,25 +532,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -546,7 +614,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>288</v>
       </c>
@@ -573,7 +641,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>289</v>
       </c>
@@ -600,7 +668,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>290</v>
       </c>
@@ -627,7 +695,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>291</v>
       </c>
@@ -658,7 +726,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" s="3" t="n">
         <v>292</v>
       </c>
@@ -689,7 +757,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" s="3" t="n">
         <v>293</v>
       </c>
@@ -716,7 +784,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" t="n">
         <v>360</v>
       </c>
@@ -749,7 +817,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" t="n">
         <v>361</v>
       </c>
@@ -782,7 +850,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11">
       <c r="A11" s="3" t="n">
         <v>294</v>
       </c>
@@ -813,10 +881,9 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="12"/>
   </sheetData>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -828,7 +895,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -840,7 +907,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -851,7 +918,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,98 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>HTML Acronym (4 words)</t>
+  </si>
+  <si>
+    <t>Hyper Text Markup Language</t>
+  </si>
+  <si>
+    <t>Hyper Text = Text with *****k to another text</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>Markup Language = t***** that characterize the text</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>Markup Language = tags that c***** the text</t>
+  </si>
+  <si>
+    <t>characterize</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>HTML is Case-Sensitive</t>
+  </si>
+  <si>
+    <t>No, Except some attribute values</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Some HTML Tag Attributes are Case Sensitive</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Recommended HTML Style is l*****</t>
+  </si>
+  <si>
+    <t>lowercase</t>
+  </si>
+  <si>
+    <t>Recommended HTML Style is lowercase</t>
+  </si>
+  <si>
+    <t>200427</t>
+  </si>
+  <si>
+    <t>Recommended HTML Style is uppercase</t>
+  </si>
+  <si>
+    <t>You can write and read HTML code in any text editor</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -149,51 +241,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -466,357 +558,269 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="n">
         <v>287</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>HTML Acronym (4 words)</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>Hyper Text Markup Language</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3" spans="1:7">
       <c r="A3" s="3" t="n">
         <v>288</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>Hyper Text = Text with *****k to another text</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4" spans="1:7">
       <c r="A4" s="3" t="n">
         <v>289</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>Markup Language = t***** that characterize the text</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>tags</t>
-        </is>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="F4" s="6" t="n"/>
       <c r="G4" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5" spans="1:7">
       <c r="A5" s="3" t="n">
         <v>290</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Markup Language = tags that c***** the text</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>characterize</t>
-        </is>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="F5" s="6" t="n"/>
       <c r="G5" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6" spans="1:7">
       <c r="A6" s="3" t="n">
         <v>291</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>HTML is Case-Sensitive</t>
-        </is>
-      </c>
-      <c r="E6" s="9" t="inlineStr">
-        <is>
-          <t>No, Except some attribute values</t>
-        </is>
-      </c>
-      <c r="F6" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="G6" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7" spans="1:7">
       <c r="A7" s="3" t="n">
         <v>292</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>Some HTML Tag Attributes are Case Sensitive</t>
-        </is>
-      </c>
-      <c r="E7" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F7" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="G7" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8" spans="1:7">
       <c r="A8" s="3" t="n">
         <v>293</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>Recommended HTML Style is l*****</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>lowercase</t>
-        </is>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F8" s="6" t="n"/>
       <c r="G8" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9" spans="1:7">
       <c r="A9" t="n">
         <v>360</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>Recommended HTML Style is lowercase</t>
-        </is>
-      </c>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F9" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>200427</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="27.6" customHeight="1">
+      <c r="C9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="10" spans="1:7">
       <c r="A10" t="n">
         <v>361</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>Recommended HTML Style is uppercase</t>
-        </is>
-      </c>
-      <c r="E10" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F10" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>200427</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="27.6" customHeight="1">
+      <c r="C10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="11" spans="1:7">
       <c r="A11" s="3" t="n">
         <v>294</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>You can write and read HTML code in any text editor</t>
-        </is>
-      </c>
-      <c r="E11" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F11" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="G11" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="12"/>
+    <row r="12" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -828,7 +832,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -840,7 +844,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -851,7 +855,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Programming Language\Html\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211E674D-C1DF-44EC-8C85-EBCEAE760A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -46,9 +52,6 @@
     <t>Hyper Text Markup Language</t>
   </si>
   <si>
-    <t>Hyper Text = Text with *****k to another text</t>
-  </si>
-  <si>
     <t>link</t>
   </si>
   <si>
@@ -101,33 +104,35 @@
   </si>
   <si>
     <t>You can write and read HTML code in any text editor</t>
+  </si>
+  <si>
+    <t>Hyper Text = Text with a ***** to other text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -241,51 +246,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -551,30 +565,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
-    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col min="1" max="1" width="3.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.69921875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.69921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -597,11 +607,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>287</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -613,226 +623,213 @@
       <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="12" t="n">
+      <c r="F2" s="6"/>
+      <c r="G2" s="12">
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3" spans="1:7">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>288</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6" t="n"/>
-      <c r="G3" s="12" t="n">
+      <c r="F3" s="6"/>
+      <c r="G3" s="12">
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4" spans="1:7">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>289</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="6" t="n"/>
-      <c r="G4" s="12" t="n">
+      <c r="F4" s="6"/>
+      <c r="G4" s="12">
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5" spans="1:7">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>290</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="12">
+        <v>210413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>291</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="6" t="n"/>
-      <c r="G5" s="12" t="n">
+      <c r="D6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="12">
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6" spans="1:7">
-      <c r="A6" s="3" t="n">
-        <v>291</v>
-      </c>
-      <c r="B6" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="9" t="s">
+    <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>292</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="12" t="n">
+      <c r="F7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="12">
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7" spans="1:7">
-      <c r="A7" s="3" t="n">
-        <v>292</v>
-      </c>
-      <c r="B7" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6" t="s">
+    <row r="8" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>293</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="12">
+        <v>210413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>360</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="12" t="n">
-        <v>210413</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="8" spans="1:7">
-      <c r="A8" s="3" t="n">
-        <v>293</v>
-      </c>
-      <c r="B8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="6" t="n"/>
-      <c r="G8" s="12" t="n">
-        <v>210413</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="9" spans="1:7">
-      <c r="A9" t="n">
-        <v>360</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="G9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>361</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="10" spans="1:7">
-      <c r="A10" t="n">
-        <v>361</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="E10" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="11" spans="1:7">
-      <c r="A11" s="3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>294</v>
       </c>
-      <c r="B11" s="8" t="n">
+      <c r="B11" s="8">
         <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="12" t="n">
+        <v>21</v>
+      </c>
+      <c r="G11" s="12">
         <v>210413</v>
       </c>
     </row>
-    <row r="12" spans="1:7"/>
   </sheetData>
-  <conditionalFormatting sqref="G2:G11">
-    <cfRule priority="3" type="colorScale">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -844,7 +841,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -855,7 +852,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <conditionalFormatting sqref="G2:G11">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -1,138 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Programming Language\Html\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211E674D-C1DF-44EC-8C85-EBCEAE760A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>HTML Acronym (4 words)</t>
-  </si>
-  <si>
-    <t>Hyper Text Markup Language</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>Markup Language = t***** that characterize the text</t>
-  </si>
-  <si>
-    <t>tags</t>
-  </si>
-  <si>
-    <t>Markup Language = tags that c***** the text</t>
-  </si>
-  <si>
-    <t>characterize</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>HTML is Case-Sensitive</t>
-  </si>
-  <si>
-    <t>No, Except some attribute values</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Some HTML Tag Attributes are Case Sensitive</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Recommended HTML Style is l*****</t>
-  </si>
-  <si>
-    <t>lowercase</t>
-  </si>
-  <si>
-    <t>Recommended HTML Style is lowercase</t>
-  </si>
-  <si>
-    <t>200427</t>
-  </si>
-  <si>
-    <t>Recommended HTML Style is uppercase</t>
-  </si>
-  <si>
-    <t>You can write and read HTML code in any text editor</t>
-  </si>
-  <si>
-    <t>Hyper Text = Text with a ***** to other text</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -249,57 +152,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -565,268 +459,361 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.69921875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>287</v>
+      </c>
+      <c r="B2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>HTML Acronym (4 words)</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>Hyper Text Markup Language</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="12" t="n">
+        <v>210413</v>
+      </c>
+    </row>
+    <row r="3" ht="27.6" customHeight="1">
+      <c r="A3" s="3" t="n">
+        <v>288</v>
+      </c>
+      <c r="B3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Hyper Text = Text with a ***** to other text</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="12" t="n">
+        <v>210413</v>
+      </c>
+    </row>
+    <row r="4" ht="27.6" customHeight="1">
+      <c r="A4" s="3" t="n">
+        <v>289</v>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Markup Language = t***** that characterize the text</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="n"/>
+      <c r="G4" s="12" t="n">
+        <v>210413</v>
+      </c>
+    </row>
+    <row r="5" ht="27.6" customHeight="1">
+      <c r="A5" s="3" t="n">
+        <v>290</v>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Markup Language = tags that c***** the text</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>characterize</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="n"/>
+      <c r="G5" s="12" t="n">
+        <v>210413</v>
+      </c>
+    </row>
+    <row r="6" ht="27.6" customHeight="1">
+      <c r="A6" s="3" t="n">
+        <v>291</v>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>HTML is Case-Sensitive</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>No, Except some attribute values</t>
+        </is>
+      </c>
+      <c r="F6" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" s="12" t="n">
+        <v>210413</v>
+      </c>
+    </row>
+    <row r="7" ht="27.6" customHeight="1">
+      <c r="A7" s="3" t="n">
+        <v>292</v>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Some HTML Tag Attributes are Case Sensitive</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F7" s="9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G7" s="12" t="n">
+        <v>210413</v>
+      </c>
+    </row>
+    <row r="8" ht="27.6" customHeight="1">
+      <c r="A8" s="3" t="n">
+        <v>293</v>
+      </c>
+      <c r="B8" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>Recommended HTML Style is l*****</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>lowercase</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="n"/>
+      <c r="G8" s="12" t="n">
+        <v>210413</v>
+      </c>
+    </row>
+    <row r="9" ht="27.6" customHeight="1">
+      <c r="A9" t="n">
+        <v>360</v>
+      </c>
+      <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>287</v>
-      </c>
-      <c r="B2" s="8">
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Recommended HTML Style is lowercase</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200427</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="27.6" customHeight="1">
+      <c r="A10" t="n">
+        <v>361</v>
+      </c>
+      <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="12">
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>Recommended HTML Style is uppercase</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200427</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="27.6" customHeight="1">
+      <c r="A11" s="3" t="n">
+        <v>294</v>
+      </c>
+      <c r="B11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>You can write and read HTML code in any text editor</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G11" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>288</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="12">
-        <v>210413</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>289</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="12">
-        <v>210413</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>290</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="12">
-        <v>210413</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>291</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="12">
-        <v>210413</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>292</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="12">
-        <v>210413</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>293</v>
-      </c>
-      <c r="B8" s="8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="12">
-        <v>210413</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>360</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>361</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>294</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="12">
-        <v>210413</v>
-      </c>
-    </row>
+    <row r="12"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="2">
@@ -865,6 +852,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,25 +532,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D5" pane="bottomLeft" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -546,7 +614,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>288</v>
       </c>
@@ -573,7 +641,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>289</v>
       </c>
@@ -600,7 +668,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>290</v>
       </c>
@@ -627,7 +695,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>291</v>
       </c>
@@ -658,7 +726,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" s="3" t="n">
         <v>292</v>
       </c>
@@ -689,7 +757,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" s="3" t="n">
         <v>293</v>
       </c>
@@ -716,7 +784,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" t="n">
         <v>360</v>
       </c>
@@ -749,7 +817,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" t="n">
         <v>361</v>
       </c>
@@ -782,7 +850,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11">
       <c r="A11" s="3" t="n">
         <v>294</v>
       </c>
@@ -813,10 +881,9 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="12"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -828,7 +895,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -840,7 +907,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -851,7 +918,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -532,25 +464,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D5" pane="bottomLeft" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
-    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -614,7 +546,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>288</v>
       </c>
@@ -641,7 +573,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>289</v>
       </c>
@@ -668,7 +600,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>290</v>
       </c>
@@ -695,7 +627,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>291</v>
       </c>
@@ -726,7 +658,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>292</v>
       </c>
@@ -757,7 +689,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>293</v>
       </c>
@@ -784,7 +716,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" t="n">
         <v>360</v>
       </c>
@@ -817,7 +749,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>361</v>
       </c>
@@ -850,7 +782,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="11">
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" s="3" t="n">
         <v>294</v>
       </c>
@@ -881,9 +813,10 @@
         <v>210413</v>
       </c>
     </row>
+    <row r="12"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -895,7 +828,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -907,7 +840,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -918,7 +851,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,98 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>HTML Acronym (4 words)</t>
+  </si>
+  <si>
+    <t>Hyper Text Markup Language</t>
+  </si>
+  <si>
+    <t>Hyper Text = Text with a ***** to other text</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>Markup Language = t***** that characterize the text</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>Markup Language = tags that c***** the text</t>
+  </si>
+  <si>
+    <t>characterize</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>HTML is Case-Sensitive</t>
+  </si>
+  <si>
+    <t>No, Except some attribute values</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Some HTML Tag Attributes are Case Sensitive</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Recommended HTML Style is l*****</t>
+  </si>
+  <si>
+    <t>lowercase</t>
+  </si>
+  <si>
+    <t>Recommended HTML Style is lowercase</t>
+  </si>
+  <si>
+    <t>200427</t>
+  </si>
+  <si>
+    <t>Recommended HTML Style is uppercase</t>
+  </si>
+  <si>
+    <t>You can write and read HTML code in any text editor</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -149,51 +241,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -466,357 +558,269 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D5" pane="bottomLeft" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="n">
         <v>287</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>HTML Acronym (4 words)</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>Hyper Text Markup Language</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3" spans="1:7">
       <c r="A3" s="3" t="n">
         <v>288</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>Hyper Text = Text with a ***** to other text</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4" spans="1:7">
       <c r="A4" s="3" t="n">
         <v>289</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>Markup Language = t***** that characterize the text</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>tags</t>
-        </is>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="F4" s="6" t="n"/>
       <c r="G4" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5" spans="1:7">
       <c r="A5" s="3" t="n">
         <v>290</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Markup Language = tags that c***** the text</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>characterize</t>
-        </is>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="F5" s="6" t="n"/>
       <c r="G5" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6" spans="1:7">
       <c r="A6" s="3" t="n">
         <v>291</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>HTML is Case-Sensitive</t>
-        </is>
-      </c>
-      <c r="E6" s="9" t="inlineStr">
-        <is>
-          <t>No, Except some attribute values</t>
-        </is>
-      </c>
-      <c r="F6" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="G6" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7" spans="1:7">
       <c r="A7" s="3" t="n">
         <v>292</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>Some HTML Tag Attributes are Case Sensitive</t>
-        </is>
-      </c>
-      <c r="E7" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F7" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="G7" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8" spans="1:7">
       <c r="A8" s="3" t="n">
         <v>293</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>Recommended HTML Style is l*****</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>lowercase</t>
-        </is>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F8" s="6" t="n"/>
       <c r="G8" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9" spans="1:7">
       <c r="A9" t="n">
         <v>360</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>Recommended HTML Style is lowercase</t>
-        </is>
-      </c>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F9" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>200427</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="27.6" customHeight="1">
+      <c r="C9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="10" spans="1:7">
       <c r="A10" t="n">
         <v>361</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>Recommended HTML Style is uppercase</t>
-        </is>
-      </c>
-      <c r="E10" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F10" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>200427</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="27.6" customHeight="1">
+      <c r="C10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="11" spans="1:7">
       <c r="A11" s="3" t="n">
         <v>294</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>You can write and read HTML code in any text editor</t>
-        </is>
-      </c>
-      <c r="E11" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F11" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="G11" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="12"/>
+    <row r="12" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -828,7 +832,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -840,7 +844,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -851,7 +855,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -1,41 +1,138 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Programming Language\Html\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E83D57-A931-4551-B90C-665508AF0732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>HTML Acronym (4 words)</t>
+  </si>
+  <si>
+    <t>Hyper Text = Text with a ***** to other text</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>Markup Language = t***** that characterize the text</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>Markup Language = tags that c***** the text</t>
+  </si>
+  <si>
+    <t>characterize</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>HTML is Case-Sensitive</t>
+  </si>
+  <si>
+    <t>No, Except some attribute values</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Some HTML Tag Attributes are Case Sensitive</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Recommended HTML Style is l*****</t>
+  </si>
+  <si>
+    <t>lowercase</t>
+  </si>
+  <si>
+    <t>Recommended HTML Style is lowercase</t>
+  </si>
+  <si>
+    <t>200427</t>
+  </si>
+  <si>
+    <t>Recommended HTML Style is uppercase</t>
+  </si>
+  <si>
+    <t>You can write and read HTML code in any text editor</t>
+  </si>
+  <si>
+    <t>hyper text markup language</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -152,48 +249,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -459,361 +565,268 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col min="1" max="1" width="3.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.69921875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.69921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>287</v>
       </c>
-      <c r="B2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>HTML Acronym (4 words)</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>Hyper Text Markup Language</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="12" t="n">
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="12">
         <v>210413</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>288</v>
       </c>
-      <c r="B3" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>Hyper Text = Text with a ***** to other text</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="n"/>
-      <c r="G3" s="12" t="n">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="12">
         <v>210413</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>289</v>
       </c>
-      <c r="B4" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>Markup Language = t***** that characterize the text</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>tags</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="n"/>
-      <c r="G4" s="12" t="n">
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="12">
         <v>210413</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>290</v>
       </c>
-      <c r="B5" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Markup Language = tags that c***** the text</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>characterize</t>
-        </is>
-      </c>
-      <c r="F5" s="6" t="n"/>
-      <c r="G5" s="12" t="n">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="12">
         <v>210413</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>291</v>
       </c>
-      <c r="B6" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>HTML is Case-Sensitive</t>
-        </is>
-      </c>
-      <c r="E6" s="9" t="inlineStr">
-        <is>
-          <t>No, Except some attribute values</t>
-        </is>
-      </c>
-      <c r="F6" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G6" s="12" t="n">
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="12">
         <v>210413</v>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>292</v>
       </c>
-      <c r="B7" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>Some HTML Tag Attributes are Case Sensitive</t>
-        </is>
-      </c>
-      <c r="E7" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F7" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G7" s="12" t="n">
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="12">
         <v>210413</v>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>293</v>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="8">
         <v>0</v>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>Recommended HTML Style is l*****</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>lowercase</t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="n"/>
-      <c r="G8" s="12" t="n">
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="12">
         <v>210413</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
-      <c r="A9" t="n">
+    <row r="9" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>360</v>
       </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>Recommended HTML Style is lowercase</t>
-        </is>
-      </c>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F9" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>200427</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="27.6" customHeight="1">
-      <c r="A10" t="n">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>361</v>
       </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>Recommended HTML Style is uppercase</t>
-        </is>
-      </c>
-      <c r="E10" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F10" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>200427</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="27.6" customHeight="1">
-      <c r="A11" s="3" t="n">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>294</v>
       </c>
-      <c r="B11" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>You can write and read HTML code in any text editor</t>
-        </is>
-      </c>
-      <c r="E11" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F11" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G11" s="12" t="n">
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="12">
         <v>210413</v>
       </c>
     </row>
-    <row r="12"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="2">
@@ -852,6 +865,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -1,138 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Programming Language\Html\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E83D57-A931-4551-B90C-665508AF0732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>HTML Acronym (4 words)</t>
-  </si>
-  <si>
-    <t>Hyper Text = Text with a ***** to other text</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>Markup Language = t***** that characterize the text</t>
-  </si>
-  <si>
-    <t>tags</t>
-  </si>
-  <si>
-    <t>Markup Language = tags that c***** the text</t>
-  </si>
-  <si>
-    <t>characterize</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>HTML is Case-Sensitive</t>
-  </si>
-  <si>
-    <t>No, Except some attribute values</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Some HTML Tag Attributes are Case Sensitive</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Recommended HTML Style is l*****</t>
-  </si>
-  <si>
-    <t>lowercase</t>
-  </si>
-  <si>
-    <t>Recommended HTML Style is lowercase</t>
-  </si>
-  <si>
-    <t>200427</t>
-  </si>
-  <si>
-    <t>Recommended HTML Style is uppercase</t>
-  </si>
-  <si>
-    <t>You can write and read HTML code in any text editor</t>
-  </si>
-  <si>
-    <t>hyper text markup language</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -249,57 +152,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -565,268 +459,361 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.69921875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>287</v>
+      </c>
+      <c r="B2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>HTML Acronym (4 words)</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>hyper text markup language</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="12" t="n">
+        <v>210413</v>
+      </c>
+    </row>
+    <row r="3" ht="27.6" customHeight="1">
+      <c r="A3" s="3" t="n">
+        <v>288</v>
+      </c>
+      <c r="B3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Hyper Text = Text with a ***** to other text</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="12" t="n">
+        <v>210413</v>
+      </c>
+    </row>
+    <row r="4" ht="27.6" customHeight="1">
+      <c r="A4" s="3" t="n">
+        <v>289</v>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Markup Language = t***** that characterize the text</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="n"/>
+      <c r="G4" s="12" t="n">
+        <v>210413</v>
+      </c>
+    </row>
+    <row r="5" ht="27.6" customHeight="1">
+      <c r="A5" s="3" t="n">
+        <v>290</v>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Markup Language = tags that c***** the text</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>characterize</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="n"/>
+      <c r="G5" s="12" t="n">
+        <v>210413</v>
+      </c>
+    </row>
+    <row r="6" ht="27.6" customHeight="1">
+      <c r="A6" s="3" t="n">
+        <v>291</v>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>HTML is Case-Sensitive</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>No, Except some attribute values</t>
+        </is>
+      </c>
+      <c r="F6" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" s="12" t="n">
+        <v>210413</v>
+      </c>
+    </row>
+    <row r="7" ht="27.6" customHeight="1">
+      <c r="A7" s="3" t="n">
+        <v>292</v>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Some HTML Tag Attributes are Case Sensitive</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F7" s="9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G7" s="12" t="n">
+        <v>210413</v>
+      </c>
+    </row>
+    <row r="8" ht="27.6" customHeight="1">
+      <c r="A8" s="3" t="n">
+        <v>293</v>
+      </c>
+      <c r="B8" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>Recommended HTML Style is l*****</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>lowercase</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="n"/>
+      <c r="G8" s="12" t="n">
+        <v>210413</v>
+      </c>
+    </row>
+    <row r="9" ht="27.6" customHeight="1">
+      <c r="A9" t="n">
+        <v>360</v>
+      </c>
+      <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>287</v>
-      </c>
-      <c r="B2" s="8">
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Recommended HTML Style is lowercase</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200427</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="27.6" customHeight="1">
+      <c r="A10" t="n">
+        <v>361</v>
+      </c>
+      <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="12">
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>Recommended HTML Style is uppercase</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200427</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="27.6" customHeight="1">
+      <c r="A11" s="3" t="n">
+        <v>294</v>
+      </c>
+      <c r="B11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>You can write and read HTML code in any text editor</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G11" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>288</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="12">
-        <v>210413</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>289</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="12">
-        <v>210413</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>290</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="12">
-        <v>210413</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>291</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="12">
-        <v>210413</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>292</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="12">
-        <v>210413</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>293</v>
-      </c>
-      <c r="B8" s="8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="12">
-        <v>210413</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>360</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>361</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>294</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="12">
-        <v>210413</v>
-      </c>
-    </row>
+    <row r="12"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="2">
@@ -865,6 +852,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,25 +532,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="E3" pane="bottomLeft" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -546,7 +614,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>288</v>
       </c>
@@ -573,7 +641,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>289</v>
       </c>
@@ -600,7 +668,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>290</v>
       </c>
@@ -627,7 +695,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>291</v>
       </c>
@@ -658,7 +726,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" s="3" t="n">
         <v>292</v>
       </c>
@@ -689,7 +757,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" s="3" t="n">
         <v>293</v>
       </c>
@@ -716,7 +784,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" t="n">
         <v>360</v>
       </c>
@@ -749,7 +817,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" t="n">
         <v>361</v>
       </c>
@@ -782,7 +850,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11">
       <c r="A11" s="3" t="n">
         <v>294</v>
       </c>
@@ -813,10 +881,9 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="12"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -828,7 +895,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -840,7 +907,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -851,7 +918,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -532,25 +464,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="E3" pane="bottomLeft" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
-    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -614,7 +546,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>288</v>
       </c>
@@ -641,7 +573,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>289</v>
       </c>
@@ -668,7 +600,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>290</v>
       </c>
@@ -695,7 +627,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>291</v>
       </c>
@@ -726,7 +658,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>292</v>
       </c>
@@ -757,7 +689,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>293</v>
       </c>
@@ -784,7 +716,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" t="n">
         <v>360</v>
       </c>
@@ -817,7 +749,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>361</v>
       </c>
@@ -850,7 +782,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="11">
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" s="3" t="n">
         <v>294</v>
       </c>
@@ -881,9 +813,10 @@
         <v>210413</v>
       </c>
     </row>
+    <row r="12"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -895,7 +828,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -907,7 +840,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -918,7 +851,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,23 +534,23 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="E3" pane="bottomLeft" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -546,7 +614,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>288</v>
       </c>
@@ -573,7 +641,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>289</v>
       </c>
@@ -600,7 +668,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>290</v>
       </c>
@@ -627,7 +695,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>291</v>
       </c>
@@ -658,7 +726,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" s="3" t="n">
         <v>292</v>
       </c>
@@ -689,7 +757,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" s="3" t="n">
         <v>293</v>
       </c>
@@ -716,7 +784,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" t="n">
         <v>360</v>
       </c>
@@ -749,7 +817,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" t="n">
         <v>361</v>
       </c>
@@ -782,7 +850,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11">
       <c r="A11" s="3" t="n">
         <v>294</v>
       </c>
@@ -816,7 +884,7 @@
     <row r="12"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -828,7 +896,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -840,7 +908,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -851,7 +919,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,23 +466,23 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="E3" pane="bottomLeft" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
-    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -614,7 +546,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>288</v>
       </c>
@@ -641,7 +573,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>289</v>
       </c>
@@ -668,7 +600,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>290</v>
       </c>
@@ -695,7 +627,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>291</v>
       </c>
@@ -726,7 +658,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>292</v>
       </c>
@@ -757,7 +689,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>293</v>
       </c>
@@ -784,7 +716,7 @@
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" t="n">
         <v>360</v>
       </c>
@@ -817,7 +749,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>361</v>
       </c>
@@ -850,7 +782,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="11">
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" s="3" t="n">
         <v>294</v>
       </c>
@@ -884,7 +816,7 @@
     <row r="12"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -896,7 +828,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -908,7 +840,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -919,7 +851,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,7 +532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -813,7 +881,6 @@
         <v>210413</v>
       </c>
     </row>
-    <row r="12"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="2">

--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -532,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -881,6 +813,7 @@
         <v>210413</v>
       </c>
     </row>
+    <row r="12"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="2">

--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,98 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>HTML Acronym (4 words)</t>
+  </si>
+  <si>
+    <t>hyper text markup language</t>
+  </si>
+  <si>
+    <t>Hyper Text = Text with a ***** to other text</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>Markup Language = t***** that characterize the text</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>Markup Language = tags that c***** the text</t>
+  </si>
+  <si>
+    <t>characterize</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>HTML is Case-Sensitive</t>
+  </si>
+  <si>
+    <t>No, Except some attribute values</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Some HTML Tag Attributes are Case Sensitive</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Recommended HTML Style is l*****</t>
+  </si>
+  <si>
+    <t>lowercase</t>
+  </si>
+  <si>
+    <t>Recommended HTML Style is lowercase</t>
+  </si>
+  <si>
+    <t>200427</t>
+  </si>
+  <si>
+    <t>Recommended HTML Style is uppercase</t>
+  </si>
+  <si>
+    <t>You can write and read HTML code in any text editor</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -149,51 +241,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -466,357 +558,269 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="E3" pane="bottomLeft" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="n">
         <v>287</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>HTML Acronym (4 words)</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>hyper text markup language</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3" spans="1:7">
       <c r="A3" s="3" t="n">
         <v>288</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>Hyper Text = Text with a ***** to other text</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4" spans="1:7">
       <c r="A4" s="3" t="n">
         <v>289</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>Markup Language = t***** that characterize the text</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>tags</t>
-        </is>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="F4" s="6" t="n"/>
       <c r="G4" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5" spans="1:7">
       <c r="A5" s="3" t="n">
         <v>290</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Markup Language = tags that c***** the text</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>characterize</t>
-        </is>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="F5" s="6" t="n"/>
       <c r="G5" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6" spans="1:7">
       <c r="A6" s="3" t="n">
         <v>291</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>HTML is Case-Sensitive</t>
-        </is>
-      </c>
-      <c r="E6" s="9" t="inlineStr">
-        <is>
-          <t>No, Except some attribute values</t>
-        </is>
-      </c>
-      <c r="F6" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="G6" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7" spans="1:7">
       <c r="A7" s="3" t="n">
         <v>292</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>Some HTML Tag Attributes are Case Sensitive</t>
-        </is>
-      </c>
-      <c r="E7" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F7" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="G7" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8" spans="1:7">
       <c r="A8" s="3" t="n">
         <v>293</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>Recommended HTML Style is l*****</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>lowercase</t>
-        </is>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F8" s="6" t="n"/>
       <c r="G8" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9" spans="1:7">
       <c r="A9" t="n">
         <v>360</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>Recommended HTML Style is lowercase</t>
-        </is>
-      </c>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F9" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>200427</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="27.6" customHeight="1">
+      <c r="C9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="10" spans="1:7">
       <c r="A10" t="n">
         <v>361</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>Recommended HTML Style is uppercase</t>
-        </is>
-      </c>
-      <c r="E10" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F10" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>200427</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="27.6" customHeight="1">
+      <c r="C10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="11" spans="1:7">
       <c r="A11" s="3" t="n">
         <v>294</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>You can write and read HTML code in any text editor</t>
-        </is>
-      </c>
-      <c r="E11" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F11" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="G11" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="12"/>
+    <row r="12" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -828,7 +832,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -840,7 +844,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -851,7 +855,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,98 +11,6 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>HTML Acronym (4 words)</t>
-  </si>
-  <si>
-    <t>hyper text markup language</t>
-  </si>
-  <si>
-    <t>Hyper Text = Text with a ***** to other text</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>Markup Language = t***** that characterize the text</t>
-  </si>
-  <si>
-    <t>tags</t>
-  </si>
-  <si>
-    <t>Markup Language = tags that c***** the text</t>
-  </si>
-  <si>
-    <t>characterize</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>HTML is Case-Sensitive</t>
-  </si>
-  <si>
-    <t>No, Except some attribute values</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Some HTML Tag Attributes are Case Sensitive</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Recommended HTML Style is l*****</t>
-  </si>
-  <si>
-    <t>lowercase</t>
-  </si>
-  <si>
-    <t>Recommended HTML Style is lowercase</t>
-  </si>
-  <si>
-    <t>200427</t>
-  </si>
-  <si>
-    <t>Recommended HTML Style is uppercase</t>
-  </si>
-  <si>
-    <t>You can write and read HTML code in any text editor</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -241,51 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -558,269 +466,357 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="E3" pane="bottomLeft" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
-    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="3" t="n">
         <v>287</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>HTML Acronym (4 words)</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>hyper text markup language</t>
+        </is>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3" spans="1:7">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>288</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Hyper Text = Text with a ***** to other text</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4" spans="1:7">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>289</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Markup Language = t***** that characterize the text</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
       </c>
       <c r="F4" s="6" t="n"/>
       <c r="G4" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5" spans="1:7">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>290</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>15</v>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Markup Language = tags that c***** the text</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>characterize</t>
+        </is>
       </c>
       <c r="F5" s="6" t="n"/>
       <c r="G5" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6" spans="1:7">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>291</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>19</v>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>HTML is Case-Sensitive</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>No, Except some attribute values</t>
+        </is>
+      </c>
+      <c r="F6" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="G6" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7" spans="1:7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>292</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>22</v>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Some HTML Tag Attributes are Case Sensitive</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F7" s="9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="G7" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8" spans="1:7">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>293</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>24</v>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>Recommended HTML Style is l*****</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>lowercase</t>
+        </is>
       </c>
       <c r="F8" s="6" t="n"/>
       <c r="G8" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9" spans="1:7">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" t="n">
         <v>360</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="10" spans="1:7">
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Recommended HTML Style is lowercase</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200427</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>361</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="11" spans="1:7">
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>Recommended HTML Style is uppercase</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200427</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" s="3" t="n">
         <v>294</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>22</v>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>You can write and read HTML code in any text editor</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="G11" s="12" t="n">
         <v>210413</v>
       </c>
     </row>
-    <row r="12" spans="1:7"/>
+    <row r="12"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -832,7 +828,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -844,7 +840,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -855,7 +851,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -560,7 +628,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>Hyper Text = Text with a ***** to other text</t>
+          <t>Hyper Text = Text with a **** to other text</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
@@ -587,7 +655,7 @@
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
-          <t>Markup Language = t***** that characterize the text</t>
+          <t>Markup Language = t*** that characterize the text</t>
         </is>
       </c>
       <c r="E4" s="6" t="inlineStr">
@@ -614,7 +682,7 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>Markup Language = tags that c***** the text</t>
+          <t>Markup Language = tags that c************** the text</t>
         </is>
       </c>
       <c r="E5" s="6" t="inlineStr">
@@ -703,7 +771,7 @@
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>Recommended HTML Style is l*****</t>
+          <t>Recommended HTML Style is l**************</t>
         </is>
       </c>
       <c r="E8" s="6" t="inlineStr">

--- a/Questions/Programming Language/Html/Basic.xlsx
+++ b/Questions/Programming Language/Html/Basic.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -682,7 +614,7 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>Markup Language = tags that c************** the text</t>
+          <t>Markup Language = tags that c***** the text</t>
         </is>
       </c>
       <c r="E5" s="6" t="inlineStr">
@@ -771,7 +703,7 @@
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>Recommended HTML Style is l**************</t>
+          <t>Recommended HTML Style is l*****</t>
         </is>
       </c>
       <c r="E8" s="6" t="inlineStr">
